--- a/eagle/fp_safety_banana/js220_fp_sba_bom.xlsx
+++ b/eagle/fp_safety_banana/js220_fp_sba_bom.xlsx
@@ -1,121 +1,52 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\Jetperch\js220_end_panels\eagle\fp_safety_banana\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8002D4D0-DC98-4925-A314-DF2490425F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-27926" yWindow="2229" windowWidth="21969" windowHeight="14717" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="All" sheetId="1" r:id="rId1"/>
-    <sheet name="Top" sheetId="2" r:id="rId2"/>
-    <sheet name="Bottom" sheetId="3" r:id="rId3"/>
+    <sheet name="All" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Top" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Bottom" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
-  <si>
-    <t>BOM - All</t>
-  </si>
-  <si>
-    <t>2023 October 14</t>
-  </si>
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>Qty</t>
-  </si>
-  <si>
-    <t>Ref Des</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>J1</t>
-  </si>
-  <si>
-    <t>CT3151V1-0</t>
-  </si>
-  <si>
-    <t>J2, J3</t>
-  </si>
-  <si>
-    <t>CT3151V1-2</t>
-  </si>
-  <si>
-    <t>J4</t>
-  </si>
-  <si>
-    <t>CT3151V1-4</t>
-  </si>
-  <si>
-    <t>J5</t>
-  </si>
-  <si>
-    <t>TSM-103-01-S-DV-A</t>
-  </si>
-  <si>
-    <t>PCB1</t>
-  </si>
-  <si>
-    <t>JS220_fp_banana_pcb_revA</t>
-  </si>
-  <si>
-    <t>BOM - Top</t>
-  </si>
-  <si>
-    <t>BOM - Bottom</t>
-  </si>
-  <si>
-    <t>JS220_fp_sba_pcb_revA</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
+      <color rgb="00000000"/>
       <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF305496"/>
+        <fgColor rgb="00305496"/>
       </patternFill>
     </fill>
   </fills>
@@ -129,181 +60,230 @@
     </border>
     <border>
       <left style="thick">
-        <color rgb="FF000000"/>
+        <color rgb="00000000"/>
       </left>
       <right style="hair">
-        <color rgb="FF000000"/>
+        <color rgb="00000000"/>
       </right>
       <top style="thick">
-        <color rgb="FF000000"/>
+        <color rgb="00000000"/>
       </top>
       <bottom style="thick">
-        <color rgb="FF000000"/>
+        <color rgb="00000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="hair">
-        <color rgb="FF000000"/>
+        <color rgb="00000000"/>
       </left>
       <right style="hair">
-        <color rgb="FF000000"/>
+        <color rgb="00000000"/>
       </right>
       <top style="thick">
-        <color rgb="FF000000"/>
+        <color rgb="00000000"/>
       </top>
       <bottom style="thick">
-        <color rgb="FF000000"/>
+        <color rgb="00000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="hair">
-        <color rgb="FF000000"/>
+        <color rgb="00000000"/>
       </left>
       <right style="thick">
-        <color rgb="FF000000"/>
+        <color rgb="00000000"/>
       </right>
       <top style="thick">
-        <color rgb="FF000000"/>
+        <color rgb="00000000"/>
       </top>
       <bottom style="thick">
-        <color rgb="FF000000"/>
+        <color rgb="00000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thick">
-        <color rgb="FF000000"/>
+        <color rgb="00000000"/>
       </left>
       <right style="hair">
-        <color rgb="FF000000"/>
+        <color rgb="00000000"/>
       </right>
       <top style="hair">
-        <color rgb="FF000000"/>
+        <color rgb="00000000"/>
       </top>
       <bottom style="hair">
-        <color rgb="FF000000"/>
+        <color rgb="00000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="hair">
-        <color rgb="FF000000"/>
+        <color rgb="00000000"/>
       </left>
       <right style="hair">
-        <color rgb="FF000000"/>
+        <color rgb="00000000"/>
       </right>
       <top style="hair">
-        <color rgb="FF000000"/>
+        <color rgb="00000000"/>
       </top>
       <bottom style="hair">
-        <color rgb="FF000000"/>
+        <color rgb="00000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="hair">
-        <color rgb="FF000000"/>
+        <color rgb="00000000"/>
       </left>
       <right style="thick">
-        <color rgb="FF000000"/>
+        <color rgb="00000000"/>
       </right>
       <top style="hair">
-        <color rgb="FF000000"/>
+        <color rgb="00000000"/>
       </top>
       <bottom style="hair">
-        <color rgb="FF000000"/>
+        <color rgb="00000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thick">
-        <color rgb="FF000000"/>
+        <color rgb="00000000"/>
       </left>
       <right style="hair">
-        <color rgb="FF000000"/>
+        <color rgb="00000000"/>
       </right>
       <top style="hair">
-        <color rgb="FF000000"/>
+        <color rgb="00000000"/>
       </top>
       <bottom style="thick">
-        <color rgb="FF000000"/>
+        <color rgb="00000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="hair">
-        <color rgb="FF000000"/>
+        <color rgb="00000000"/>
       </left>
       <right style="hair">
-        <color rgb="FF000000"/>
+        <color rgb="00000000"/>
       </right>
       <top style="hair">
-        <color rgb="FF000000"/>
+        <color rgb="00000000"/>
       </top>
       <bottom style="thick">
-        <color rgb="FF000000"/>
+        <color rgb="00000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="hair">
-        <color rgb="FF000000"/>
+        <color rgb="00000000"/>
       </left>
       <right style="thick">
-        <color rgb="FF000000"/>
+        <color rgb="00000000"/>
       </right>
       <top style="hair">
-        <color rgb="FF000000"/>
+        <color rgb="00000000"/>
       </top>
       <bottom style="thick">
-        <color rgb="FF000000"/>
+        <color rgb="00000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -591,122 +571,153 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="4" customWidth="1"/>
-    <col min="3" max="3" width="50" customWidth="1"/>
-    <col min="4" max="4" width="28" customWidth="1"/>
+    <col width="4" customWidth="1" min="1" max="1"/>
+    <col width="4" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="3" max="3"/>
+    <col width="28" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.6" x14ac:dyDescent="0.4">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="14" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>BOM - All</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>2024 October 14</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>Qty</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Ref Des</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
+      <c r="B5" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8" t="inlineStr">
+        <is>
+          <t>J1</t>
+        </is>
+      </c>
+      <c r="D5" s="9" t="inlineStr">
+        <is>
+          <t>CT3151V1-0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B6" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" s="8" t="inlineStr">
+        <is>
+          <t>J2, J3</t>
+        </is>
+      </c>
+      <c r="D6" s="9" t="inlineStr">
+        <is>
+          <t>CT3151V1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="B7" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8" t="inlineStr">
+        <is>
+          <t>J4</t>
+        </is>
+      </c>
+      <c r="D7" s="9" t="inlineStr">
+        <is>
+          <t>CT3151V1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="B8" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>J5</t>
+        </is>
+      </c>
+      <c r="D8" s="9" t="inlineStr">
+        <is>
+          <t>TSM-103-01-S-DV-A</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="10" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="4">
+      <c r="B9" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="4">
-        <v>2</v>
-      </c>
-      <c r="B6" s="5">
-        <v>2</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="4">
-        <v>3</v>
-      </c>
-      <c r="B7" s="5">
-        <v>1</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="4">
-        <v>4</v>
-      </c>
-      <c r="B8" s="5">
-        <v>1</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="8">
-        <v>5</v>
-      </c>
-      <c r="B9" s="9">
-        <v>1</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B10">
+      <c r="C9" s="12" t="inlineStr">
+        <is>
+          <t>PCB1</t>
+        </is>
+      </c>
+      <c r="D9" s="13" t="inlineStr">
+        <is>
+          <t>JS220_fp_sba_pcb_revB</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="n">
         <v>6</v>
       </c>
     </row>
@@ -716,125 +727,158 @@
     <mergeCell ref="A2:D2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" paperSize="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="4" customWidth="1"/>
-    <col min="3" max="3" width="50" customWidth="1"/>
-    <col min="4" max="4" width="28" customWidth="1"/>
+    <col width="4" customWidth="1" min="1" max="1"/>
+    <col width="4" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="3" max="3"/>
+    <col width="28" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.6" x14ac:dyDescent="0.4">
-      <c r="A1" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="14" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>BOM - Top</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>2024 October 14</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>Qty</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Ref Des</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
+      <c r="B5" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8" t="inlineStr">
+        <is>
+          <t>J1</t>
+        </is>
+      </c>
+      <c r="D5" s="9" t="inlineStr">
+        <is>
+          <t>CT3151V1-0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B6" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" s="8" t="inlineStr">
+        <is>
+          <t>J2, J3</t>
+        </is>
+      </c>
+      <c r="D6" s="9" t="inlineStr">
+        <is>
+          <t>CT3151V1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="B7" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8" t="inlineStr">
+        <is>
+          <t>J4</t>
+        </is>
+      </c>
+      <c r="D7" s="9" t="inlineStr">
+        <is>
+          <t>CT3151V1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="B8" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>J5</t>
+        </is>
+      </c>
+      <c r="D8" s="9" t="inlineStr">
+        <is>
+          <t>TSM-103-01-S-DV-A</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="10" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="4">
+      <c r="B9" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="4">
-        <v>2</v>
-      </c>
-      <c r="B6" s="5">
-        <v>2</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="4">
-        <v>3</v>
-      </c>
-      <c r="B7" s="5">
-        <v>1</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="4">
-        <v>4</v>
-      </c>
-      <c r="B8" s="5">
-        <v>1</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="8">
-        <v>5</v>
-      </c>
-      <c r="B9" s="9">
-        <v>1</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B10">
+      <c r="C9" s="12" t="inlineStr">
+        <is>
+          <t>PCB1</t>
+        </is>
+      </c>
+      <c r="D9" s="13" t="inlineStr">
+        <is>
+          <t>JS220_fp_sba_pcb_revB</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="n">
         <v>6</v>
       </c>
     </row>
@@ -844,55 +888,68 @@
     <mergeCell ref="A2:D2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" paperSize="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="4" customWidth="1"/>
-    <col min="3" max="3" width="50" customWidth="1"/>
-    <col min="4" max="4" width="28" customWidth="1"/>
+    <col width="4" customWidth="1" min="1" max="1"/>
+    <col width="4" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="3" max="3"/>
+    <col width="28" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.6" x14ac:dyDescent="0.4">
-      <c r="A1" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B5">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>BOM - Bottom</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>2024 October 14</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>Qty</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Ref Des</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -902,6 +959,6 @@
     <mergeCell ref="A2:D2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" paperSize="1"/>
 </worksheet>
 </file>
--- a/eagle/fp_safety_banana/js220_fp_sba_bom.xlsx
+++ b/eagle/fp_safety_banana/js220_fp_sba_bom.xlsx
@@ -600,7 +600,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>2024 October 14</t>
+          <t>2024 October 29</t>
         </is>
       </c>
     </row>
@@ -640,7 +640,7 @@
       </c>
       <c r="D5" s="9" t="inlineStr">
         <is>
-          <t>CT3151V1-0</t>
+          <t>CT3149-0</t>
         </is>
       </c>
     </row>
@@ -658,7 +658,7 @@
       </c>
       <c r="D6" s="9" t="inlineStr">
         <is>
-          <t>CT3151V1-2</t>
+          <t>CT3149-2</t>
         </is>
       </c>
     </row>
@@ -676,7 +676,7 @@
       </c>
       <c r="D7" s="9" t="inlineStr">
         <is>
-          <t>CT3151V1-4</t>
+          <t>CT3149-4</t>
         </is>
       </c>
     </row>
@@ -761,7 +761,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>2024 October 14</t>
+          <t>2024 October 29</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="D5" s="9" t="inlineStr">
         <is>
-          <t>CT3151V1-0</t>
+          <t>CT3149-0</t>
         </is>
       </c>
     </row>
@@ -819,7 +819,7 @@
       </c>
       <c r="D6" s="9" t="inlineStr">
         <is>
-          <t>CT3151V1-2</t>
+          <t>CT3149-2</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="D7" s="9" t="inlineStr">
         <is>
-          <t>CT3151V1-4</t>
+          <t>CT3149-4</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>2024 October 14</t>
+          <t>2024 October 29</t>
         </is>
       </c>
     </row>
